--- a/data/excel/data.xlsx
+++ b/data/excel/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nuritas/Desktop/Python/finance/streamlit/portfolyo4/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nuritas/Desktop/Python/finance/streamlit/portfolyo4/data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96900F84-C7AA-EC45-9121-BEC1C4EB0F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D35CF9-0204-CB47-AB5F-898B770AB2ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{339AC3F1-92AC-C742-AF13-3BA0719A61DC}"/>
+    <workbookView xWindow="2240" yWindow="-18680" windowWidth="28040" windowHeight="17440" xr2:uid="{339AC3F1-92AC-C742-AF13-3BA0719A61DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="21">
   <si>
     <t>AKBNK</t>
   </si>
@@ -451,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{778C9A14-F59B-7E4C-8BD9-3DC8414298DA}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="176" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4">
         <v>33.92</v>
@@ -834,7 +834,58 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
+      <c r="A23" s="1">
+        <v>45209</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23">
+        <v>150</v>
+      </c>
+      <c r="E23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>45209</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24">
+        <v>74.7</v>
+      </c>
+      <c r="E24">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>45209</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25">
+        <v>9.76</v>
+      </c>
+      <c r="E25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
